--- a/sensitivity analysis/outputs/S3/S3_start_immunity.xlsx
+++ b/sensitivity analysis/outputs/S3/S3_start_immunity.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,32 +377,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>overall_imm_cdc_lower</t>
+          <t>immunity_all</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>infection_and_vaccination_cdc_pct_lower</t>
+          <t>immunity_by_infection</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>infection_only_cdc_pct_lower</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>vaccination_only_cdc_pct_lower</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>scenario</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>excess</t>
+          <t>immunity_by_vaccination</t>
         </is>
       </c>
     </row>
@@ -419,21 +404,10 @@
         <v>46.34223996473268</v>
       </c>
       <c r="D2">
+        <v>46.34223996473268</v>
+      </c>
+      <c r="E2">
         <v>44.14099556684915</v>
-      </c>
-      <c r="E2">
-        <v>2.201244397883531</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H2">
-        <v>2.201244397883531</v>
       </c>
     </row>
     <row r="3">
@@ -449,21 +423,10 @@
         <v>47.35979362050896</v>
       </c>
       <c r="D3">
+        <v>47.35979362050896</v>
+      </c>
+      <c r="E3">
         <v>33.24944255281638</v>
-      </c>
-      <c r="E3">
-        <v>14.11035106769258</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>14.11035106769258</v>
       </c>
     </row>
     <row r="4">
@@ -482,18 +445,7 @@
         <v>39.42587209302326</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>7.868950460089748</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H4">
-        <v>-7.868950460089748</v>
+        <v>47.29482255311301</v>
       </c>
     </row>
     <row r="5">
@@ -509,21 +461,10 @@
         <v>42.14922496185046</v>
       </c>
       <c r="D5">
+        <v>42.14922496185046</v>
+      </c>
+      <c r="E5">
         <v>32.13506570860204</v>
-      </c>
-      <c r="E5">
-        <v>10.01415925324842</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H5">
-        <v>10.01415925324842</v>
       </c>
     </row>
     <row r="6">
@@ -542,18 +483,7 @@
         <v>33.41398950228939</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>10.96522944983635</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>-10.96522944983635</v>
+        <v>44.37921895212574</v>
       </c>
     </row>
     <row r="7">
@@ -569,21 +499,10 @@
         <v>49.37735633497087</v>
       </c>
       <c r="D7">
+        <v>49.37735633497087</v>
+      </c>
+      <c r="E7">
         <v>43.1115365299928</v>
-      </c>
-      <c r="E7">
-        <v>6.265819804978063</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H7">
-        <v>6.265819804978063</v>
       </c>
     </row>
     <row r="8">
@@ -602,18 +521,7 @@
         <v>40.29002713704206</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>2.075131606282942</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H8">
-        <v>-2.075131606282942</v>
+        <v>42.365158743325</v>
       </c>
     </row>
     <row r="9">
@@ -632,18 +540,7 @@
         <v>37.08978328173374</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>3.320504499146643</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H9">
-        <v>-3.320504499146643</v>
+        <v>40.41028778088039</v>
       </c>
     </row>
     <row r="10">
@@ -659,21 +556,10 @@
         <v>39.40491513754602</v>
       </c>
       <c r="D10">
+        <v>39.40491513754602</v>
+      </c>
+      <c r="E10">
         <v>30.55913992212878</v>
-      </c>
-      <c r="E10">
-        <v>8.845775215417246</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H10">
-        <v>8.845775215417246</v>
       </c>
     </row>
     <row r="11">
@@ -692,18 +578,7 @@
         <v>28.1910253006107</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>25.99765914948611</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H11">
-        <v>-25.99765914948611</v>
+        <v>54.18868445009682</v>
       </c>
     </row>
     <row r="12">
@@ -722,18 +597,7 @@
         <v>28.0186541890177</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>23.90739771020141</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H12">
-        <v>-23.90739771020141</v>
+        <v>51.9260518992191</v>
       </c>
     </row>
     <row r="13">
@@ -749,21 +613,10 @@
         <v>44.77147430197404</v>
       </c>
       <c r="D13">
+        <v>44.77147430197404</v>
+      </c>
+      <c r="E13">
         <v>35.36294023937685</v>
-      </c>
-      <c r="E13">
-        <v>9.408534062597191</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H13">
-        <v>9.408534062597191</v>
       </c>
     </row>
     <row r="14">
@@ -779,21 +632,10 @@
         <v>42.85458461389541</v>
       </c>
       <c r="D14">
+        <v>42.85458461389541</v>
+      </c>
+      <c r="E14">
         <v>39.66233375948252</v>
-      </c>
-      <c r="E14">
-        <v>3.192250854412888</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H14">
-        <v>3.192250854412888</v>
       </c>
     </row>
     <row r="15">
@@ -809,21 +651,10 @@
         <v>46.38268770455767</v>
       </c>
       <c r="D15">
+        <v>46.38268770455767</v>
+      </c>
+      <c r="E15">
         <v>36.00984085587645</v>
-      </c>
-      <c r="E15">
-        <v>10.37284684868121</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H15">
-        <v>10.37284684868121</v>
       </c>
     </row>
     <row r="16">
@@ -842,18 +673,7 @@
         <v>26.31030234101033</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>5.49314375025078</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H16">
-        <v>-5.49314375025078</v>
+        <v>31.80344609126112</v>
       </c>
     </row>
     <row r="17">
@@ -872,18 +692,7 @@
         <v>30.47922397567685</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>14.62739457105922</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H17">
-        <v>-14.62739457105922</v>
+        <v>45.10661854673607</v>
       </c>
     </row>
     <row r="18">
@@ -899,21 +708,10 @@
         <v>38.37065773232234</v>
       </c>
       <c r="D18">
+        <v>38.37065773232234</v>
+      </c>
+      <c r="E18">
         <v>35.36649395848281</v>
-      </c>
-      <c r="E18">
-        <v>3.004163773839536</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H18">
-        <v>3.004163773839536</v>
       </c>
     </row>
     <row r="19">
@@ -929,21 +727,10 @@
         <v>50.0517089326388</v>
       </c>
       <c r="D19">
+        <v>50.0517089326388</v>
+      </c>
+      <c r="E19">
         <v>39.99794611134792</v>
-      </c>
-      <c r="E19">
-        <v>10.05376282129088</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H19">
-        <v>10.05376282129088</v>
       </c>
     </row>
     <row r="20">
@@ -962,18 +749,7 @@
         <v>26.51602231629707</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>22.25754997865589</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H20">
-        <v>-22.25754997865589</v>
+        <v>48.77357229495296</v>
       </c>
     </row>
     <row r="21">
@@ -989,21 +765,10 @@
         <v>37.15542207443956</v>
       </c>
       <c r="D21">
+        <v>37.15542207443956</v>
+      </c>
+      <c r="E21">
         <v>33.6752665218138</v>
-      </c>
-      <c r="E21">
-        <v>3.480155552625762</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H21">
-        <v>3.480155552625762</v>
       </c>
     </row>
     <row r="22">
@@ -1022,18 +787,7 @@
         <v>42.05150031921686</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0.3933110954593166</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H22">
-        <v>-0.3933110954593166</v>
+        <v>42.44481141467617</v>
       </c>
     </row>
     <row r="23">
@@ -1052,18 +806,7 @@
         <v>33.21761374017906</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1.099549010328158</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H23">
-        <v>-1.099549010328158</v>
+        <v>34.31716275050722</v>
       </c>
     </row>
     <row r="24">
@@ -1079,21 +822,10 @@
         <v>47.70049957854485</v>
       </c>
       <c r="D24">
+        <v>47.70049957854486</v>
+      </c>
+      <c r="E24">
         <v>34.17733258723138</v>
-      </c>
-      <c r="E24">
-        <v>13.52316699131348</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H24">
-        <v>13.52316699131348</v>
       </c>
     </row>
     <row r="25">
@@ -1109,21 +841,10 @@
         <v>45.51615894984661</v>
       </c>
       <c r="D25">
+        <v>45.51615894984661</v>
+      </c>
+      <c r="E25">
         <v>30.84225546824763</v>
-      </c>
-      <c r="E25">
-        <v>14.67390348159899</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H25">
-        <v>14.67390348159899</v>
       </c>
     </row>
     <row r="26">
@@ -1142,18 +863,7 @@
         <v>36.79152315813096</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1.803221297842817</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H26">
-        <v>-1.803221297842817</v>
+        <v>38.59474445597377</v>
       </c>
     </row>
     <row r="27">
@@ -1169,21 +879,10 @@
         <v>36.08473206533658</v>
       </c>
       <c r="D27">
+        <v>36.08473206533658</v>
+      </c>
+      <c r="E27">
         <v>26.40659077238223</v>
-      </c>
-      <c r="E27">
-        <v>9.678141292954358</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H27">
-        <v>9.678141292954358</v>
       </c>
     </row>
     <row r="28">
@@ -1202,18 +901,7 @@
         <v>23.91230133141145</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>11.56236151379562</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H28">
-        <v>-11.56236151379562</v>
+        <v>35.47466284520707</v>
       </c>
     </row>
     <row r="29">
@@ -1232,18 +920,7 @@
         <v>23.93020816078626</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>38.07254006160758</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H29">
-        <v>-38.07254006160758</v>
+        <v>62.00274822239385</v>
       </c>
     </row>
     <row r="30">
@@ -1259,21 +936,10 @@
         <v>41.04945549972488</v>
       </c>
       <c r="D30">
+        <v>41.04945549972488</v>
+      </c>
+      <c r="E30">
         <v>34.48325984072544</v>
-      </c>
-      <c r="E30">
-        <v>6.566195658999439</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H30">
-        <v>6.566195658999439</v>
       </c>
     </row>
     <row r="31">
@@ -1292,18 +958,7 @@
         <v>39.47275007691034</v>
       </c>
       <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>4.409750042155006</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H31">
-        <v>-4.409750042155006</v>
+        <v>43.88250011906534</v>
       </c>
     </row>
     <row r="32">
@@ -1319,21 +974,10 @@
         <v>42.7968185595333</v>
       </c>
       <c r="D32">
+        <v>42.7968185595333</v>
+      </c>
+      <c r="E32">
         <v>28.21789526284213</v>
-      </c>
-      <c r="E32">
-        <v>14.57892329669117</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H32">
-        <v>14.57892329669117</v>
       </c>
     </row>
     <row r="33">
@@ -1352,18 +996,7 @@
         <v>32.86601164669968</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>22.01102143879094</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H33">
-        <v>-22.01102143879094</v>
+        <v>54.87703308549062</v>
       </c>
     </row>
     <row r="34">
@@ -1379,21 +1012,10 @@
         <v>43.20012156207263</v>
       </c>
       <c r="D34">
+        <v>43.20012156207264</v>
+      </c>
+      <c r="E34">
         <v>33.25013994704943</v>
-      </c>
-      <c r="E34">
-        <v>9.94998161502321</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H34">
-        <v>9.94998161502321</v>
       </c>
     </row>
     <row r="35">
@@ -1412,18 +1034,7 @@
         <v>39.38538626580845</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>8.768276358442193</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H35">
-        <v>-8.768276358442193</v>
+        <v>48.15366262425064</v>
       </c>
     </row>
     <row r="36">
@@ -1439,21 +1050,10 @@
         <v>42.1325457340044</v>
       </c>
       <c r="D36">
+        <v>42.1325457340044</v>
+      </c>
+      <c r="E36">
         <v>40.64444738071186</v>
-      </c>
-      <c r="E36">
-        <v>1.488098353292546</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H36">
-        <v>1.488098353292546</v>
       </c>
     </row>
     <row r="37">
@@ -1469,21 +1069,10 @@
         <v>49.37999097007813</v>
       </c>
       <c r="D37">
+        <v>49.37999097007813</v>
+      </c>
+      <c r="E37">
         <v>36.66309896774178</v>
-      </c>
-      <c r="E37">
-        <v>12.71689200233634</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H37">
-        <v>12.71689200233634</v>
       </c>
     </row>
     <row r="38">
@@ -1502,18 +1091,7 @@
         <v>25.77069622445445</v>
       </c>
       <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>5.180662235118636</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H38">
-        <v>-5.180662235118636</v>
+        <v>30.95135845957309</v>
       </c>
     </row>
     <row r="39">
@@ -1529,21 +1107,10 @@
         <v>31.49606299212599</v>
       </c>
       <c r="D39">
+        <v>31.49606299212598</v>
+      </c>
+      <c r="E39">
         <v>30.90070922474321</v>
-      </c>
-      <c r="E39">
-        <v>0.5953537673827723</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H39">
-        <v>0.5953537673827723</v>
       </c>
     </row>
     <row r="40">
@@ -1562,18 +1129,7 @@
         <v>40.20361380798274</v>
       </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>2.280215583753541</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H40">
-        <v>-2.280215583753541</v>
+        <v>42.48382939173628</v>
       </c>
     </row>
     <row r="41">
@@ -1589,21 +1145,10 @@
         <v>46.00389863547758</v>
       </c>
       <c r="D41">
+        <v>46.00389863547759</v>
+      </c>
+      <c r="E41">
         <v>40.1066820501356</v>
-      </c>
-      <c r="E41">
-        <v>5.897216585341985</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H41">
-        <v>5.897216585341985</v>
       </c>
     </row>
     <row r="42">
@@ -1622,18 +1167,7 @@
         <v>36.83041972614366</v>
       </c>
       <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>10.23769491838111</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H42">
-        <v>-10.23769491838111</v>
+        <v>47.06811464452477</v>
       </c>
     </row>
     <row r="43">
@@ -1649,21 +1183,10 @@
         <v>44.19613205704239</v>
       </c>
       <c r="D43">
+        <v>44.19613205704239</v>
+      </c>
+      <c r="E43">
         <v>38.24045519313722</v>
-      </c>
-      <c r="E43">
-        <v>5.955676863905179</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H43">
-        <v>5.955676863905179</v>
       </c>
     </row>
     <row r="44">
@@ -1679,21 +1202,10 @@
         <v>36.18303183326655</v>
       </c>
       <c r="D44">
+        <v>36.18303183326655</v>
+      </c>
+      <c r="E44">
         <v>28.73234820156047</v>
-      </c>
-      <c r="E44">
-        <v>7.450683631706084</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H44">
-        <v>7.450683631706084</v>
       </c>
     </row>
     <row r="45">
@@ -1712,18 +1224,7 @@
         <v>29.35154701652662</v>
       </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>16.12344064308244</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H45">
-        <v>-16.12344064308244</v>
+        <v>45.47498765960906</v>
       </c>
     </row>
     <row r="46">
@@ -1742,18 +1243,7 @@
         <v>35.65479971804756</v>
       </c>
       <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>10.21974266672227</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H46">
-        <v>-10.21974266672227</v>
+        <v>45.87454238476983</v>
       </c>
     </row>
     <row r="47">
@@ -1769,21 +1259,10 @@
         <v>35.04914209561885</v>
       </c>
       <c r="D47">
+        <v>35.04914209561885</v>
+      </c>
+      <c r="E47">
         <v>33.98615684957979</v>
-      </c>
-      <c r="E47">
-        <v>1.062985246039065</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H47">
-        <v>1.062985246039065</v>
       </c>
     </row>
     <row r="48">
@@ -1799,21 +1278,10 @@
         <v>36.08799599681227</v>
       </c>
       <c r="D48">
+        <v>36.08799599681228</v>
+      </c>
+      <c r="E48">
         <v>21.25208881799581</v>
-      </c>
-      <c r="E48">
-        <v>14.83590717881647</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H48">
-        <v>14.83590717881647</v>
       </c>
     </row>
     <row r="49">
@@ -1832,18 +1300,7 @@
         <v>51.33320544791866</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1.478629460471895</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H49">
-        <v>-1.478629460471895</v>
+        <v>52.81183490839055</v>
       </c>
     </row>
     <row r="50">
@@ -1859,21 +1316,10 @@
         <v>43.69880025977281</v>
       </c>
       <c r="D50">
+        <v>43.69880025977281</v>
+      </c>
+      <c r="E50">
         <v>38.41212771444065</v>
-      </c>
-      <c r="E50">
-        <v>5.286672545332161</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H50">
-        <v>5.286672545332161</v>
       </c>
     </row>
     <row r="51">
@@ -1892,18 +1338,7 @@
         <v>33.93730495132517</v>
       </c>
       <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>5.696503283778146</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H51">
-        <v>-5.696503283778146</v>
+        <v>39.63380823510332</v>
       </c>
     </row>
     <row r="52">
@@ -1919,21 +1354,10 @@
         <v>44.78894702087672</v>
       </c>
       <c r="D52">
+        <v>44.78894702087672</v>
+      </c>
+      <c r="E52">
         <v>39.35567043067265</v>
-      </c>
-      <c r="E52">
-        <v>5.433276590204074</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H52">
-        <v>5.433276590204074</v>
       </c>
     </row>
     <row r="53">
@@ -1949,21 +1373,10 @@
         <v>37.64853033145716</v>
       </c>
       <c r="D53">
+        <v>37.64853033145716</v>
+      </c>
+      <c r="E53">
         <v>36.72198415755368</v>
-      </c>
-      <c r="E53">
-        <v>0.9265461739034814</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H53">
-        <v>0.9265461739034814</v>
       </c>
     </row>
     <row r="54">
@@ -1979,21 +1392,10 @@
         <v>40.4556802962914</v>
       </c>
       <c r="D54">
+        <v>40.4556802962914</v>
+      </c>
+      <c r="E54">
         <v>39.20052859767888</v>
-      </c>
-      <c r="E54">
-        <v>1.255151698612524</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H54">
-        <v>1.255151698612524</v>
       </c>
     </row>
     <row r="55">
@@ -2009,21 +1411,10 @@
         <v>44.07639720910564</v>
       </c>
       <c r="D55">
+        <v>44.07639720910564</v>
+      </c>
+      <c r="E55">
         <v>38.9423163038304</v>
-      </c>
-      <c r="E55">
-        <v>5.134080905275249</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H55">
-        <v>5.134080905275249</v>
       </c>
     </row>
     <row r="56">
@@ -2039,21 +1430,10 @@
         <v>49.34936504299377</v>
       </c>
       <c r="D56">
+        <v>49.34936504299377</v>
+      </c>
+      <c r="E56">
         <v>38.24933151254588</v>
-      </c>
-      <c r="E56">
-        <v>11.10003353044788</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H56">
-        <v>11.10003353044788</v>
       </c>
     </row>
     <row r="57">
@@ -2072,18 +1452,7 @@
         <v>36.13592623445265</v>
       </c>
       <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>12.249830380025</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H57">
-        <v>-12.249830380025</v>
+        <v>48.38575661447764</v>
       </c>
     </row>
     <row r="58">
@@ -2102,18 +1471,7 @@
         <v>29.60137680822364</v>
       </c>
       <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>16.91025433275584</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H58">
-        <v>-16.91025433275584</v>
+        <v>46.51163114097949</v>
       </c>
     </row>
     <row r="59">
@@ -2129,21 +1487,10 @@
         <v>39.30150115978817</v>
       </c>
       <c r="D59">
+        <v>39.30150115978817</v>
+      </c>
+      <c r="E59">
         <v>33.89984858106718</v>
-      </c>
-      <c r="E59">
-        <v>5.401652578720994</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H59">
-        <v>5.401652578720994</v>
       </c>
     </row>
     <row r="60">
@@ -2159,21 +1506,10 @@
         <v>46.1405797421894</v>
       </c>
       <c r="D60">
+        <v>46.1405797421894</v>
+      </c>
+      <c r="E60">
         <v>37.50093065085732</v>
-      </c>
-      <c r="E60">
-        <v>8.639649091332078</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H60">
-        <v>8.639649091332078</v>
       </c>
     </row>
     <row r="61">
@@ -2192,18 +1528,7 @@
         <v>42.43858628632588</v>
       </c>
       <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>5.204390998426341</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H61">
-        <v>-5.204390998426341</v>
+        <v>47.64297728475222</v>
       </c>
     </row>
     <row r="62">
@@ -2219,21 +1544,10 @@
         <v>39.02959210877099</v>
       </c>
       <c r="D62">
+        <v>39.02959210877099</v>
+      </c>
+      <c r="E62">
         <v>36.90524015320087</v>
-      </c>
-      <c r="E62">
-        <v>2.124351955570118</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H62">
-        <v>2.124351955570118</v>
       </c>
     </row>
     <row r="63">
@@ -2249,21 +1563,10 @@
         <v>49.49361514751211</v>
       </c>
       <c r="D63">
+        <v>49.49361514751211</v>
+      </c>
+      <c r="E63">
         <v>33.18744365555313</v>
-      </c>
-      <c r="E63">
-        <v>16.30617149195898</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H63">
-        <v>16.30617149195898</v>
       </c>
     </row>
     <row r="64">
@@ -2282,18 +1585,7 @@
         <v>36.89025016958908</v>
       </c>
       <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>8.512311590682014</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H64">
-        <v>-8.512311590682014</v>
+        <v>45.4025617602711</v>
       </c>
     </row>
     <row r="65">
@@ -2309,21 +1601,10 @@
         <v>49.44804849516112</v>
       </c>
       <c r="D65">
+        <v>49.44804849516112</v>
+      </c>
+      <c r="E65">
         <v>42.67783065730858</v>
-      </c>
-      <c r="E65">
-        <v>6.770217837852539</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H65">
-        <v>6.770217837852539</v>
       </c>
     </row>
     <row r="66">
@@ -2342,18 +1623,7 @@
         <v>34.14612745571164</v>
       </c>
       <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>17.06200731170616</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H66">
-        <v>-17.06200731170616</v>
+        <v>51.2081347674178</v>
       </c>
     </row>
     <row r="67">
@@ -2369,21 +1639,10 @@
         <v>37.74190313847388</v>
       </c>
       <c r="D67">
+        <v>37.74190313847388</v>
+      </c>
+      <c r="E67">
         <v>36.33516965859189</v>
-      </c>
-      <c r="E67">
-        <v>1.406733479881984</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H67">
-        <v>1.406733479881984</v>
       </c>
     </row>
     <row r="68">
@@ -2399,21 +1658,10 @@
         <v>36.50605683117256</v>
       </c>
       <c r="D68">
+        <v>36.50605683117256</v>
+      </c>
+      <c r="E68">
         <v>22.82245652981953</v>
-      </c>
-      <c r="E68">
-        <v>13.68360030135303</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H68">
-        <v>13.68360030135303</v>
       </c>
     </row>
     <row r="69">
@@ -2432,18 +1680,7 @@
         <v>23.60739042779419</v>
       </c>
       <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>39.64754348314218</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H69">
-        <v>-39.64754348314218</v>
+        <v>63.25493391093637</v>
       </c>
     </row>
     <row r="70">
@@ -2462,18 +1699,7 @@
         <v>34.89489016612865</v>
       </c>
       <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>7.581512207135972</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H70">
-        <v>-7.581512207135972</v>
+        <v>42.47640237326462</v>
       </c>
     </row>
     <row r="71">
@@ -2492,18 +1718,7 @@
         <v>34.71174773498001</v>
       </c>
       <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>4.153877596073138</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H71">
-        <v>-4.153877596073138</v>
+        <v>38.86562533105315</v>
       </c>
     </row>
     <row r="72">
@@ -2522,18 +1737,7 @@
         <v>36.55027401115913</v>
       </c>
       <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>2.503572633729533</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H72">
-        <v>-2.503572633729533</v>
+        <v>39.05384664488866</v>
       </c>
     </row>
     <row r="73">
@@ -2552,18 +1756,7 @@
         <v>30.85629188384215</v>
       </c>
       <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>4.625593207071776</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H73">
-        <v>-4.625593207071776</v>
+        <v>35.48188509091392</v>
       </c>
     </row>
     <row r="74">
@@ -2582,18 +1775,7 @@
         <v>35.3183377811666</v>
       </c>
       <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>5.35229496420272</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H74">
-        <v>-5.35229496420272</v>
+        <v>40.67063274536932</v>
       </c>
     </row>
     <row r="75">
@@ -2609,21 +1791,10 @@
         <v>45.8211205326369</v>
       </c>
       <c r="D75">
+        <v>45.8211205326369</v>
+      </c>
+      <c r="E75">
         <v>41.01863287511839</v>
-      </c>
-      <c r="E75">
-        <v>4.802487657518512</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H75">
-        <v>4.802487657518512</v>
       </c>
     </row>
     <row r="76">
@@ -2642,18 +1813,7 @@
         <v>29.12876392469718</v>
       </c>
       <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>9.136879548101568</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H76">
-        <v>-9.136879548101568</v>
+        <v>38.26564347279875</v>
       </c>
     </row>
     <row r="77">
@@ -2669,21 +1829,10 @@
         <v>42.74235246440001</v>
       </c>
       <c r="D77">
+        <v>42.7423524644</v>
+      </c>
+      <c r="E77">
         <v>31.47935403153563</v>
-      </c>
-      <c r="E77">
-        <v>11.26299843286438</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H77">
-        <v>11.26299843286438</v>
       </c>
     </row>
     <row r="78">
@@ -2699,21 +1848,10 @@
         <v>42.36726892903972</v>
       </c>
       <c r="D78">
+        <v>42.36726892903972</v>
+      </c>
+      <c r="E78">
         <v>33.24371567052008</v>
-      </c>
-      <c r="E78">
-        <v>9.123553258519635</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H78">
-        <v>9.123553258519635</v>
       </c>
     </row>
     <row r="79">
@@ -2729,21 +1867,10 @@
         <v>50.08899212645932</v>
       </c>
       <c r="D79">
+        <v>50.08899212645932</v>
+      </c>
+      <c r="E79">
         <v>24.25373579412955</v>
-      </c>
-      <c r="E79">
-        <v>25.83525633232977</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H79">
-        <v>25.83525633232977</v>
       </c>
     </row>
     <row r="80">
@@ -2762,18 +1889,7 @@
         <v>35.84659134578433</v>
       </c>
       <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>1.503747815372045</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H80">
-        <v>-1.503747815372045</v>
+        <v>37.35033916115638</v>
       </c>
     </row>
     <row r="81">
@@ -2789,21 +1905,10 @@
         <v>48.65712493584991</v>
       </c>
       <c r="D81">
+        <v>48.65712493584992</v>
+      </c>
+      <c r="E81">
         <v>29.37336716659092</v>
-      </c>
-      <c r="E81">
-        <v>19.283757769259</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H81">
-        <v>19.283757769259</v>
       </c>
     </row>
     <row r="82">
@@ -2819,21 +1924,10 @@
         <v>44.63130077028183</v>
       </c>
       <c r="D82">
+        <v>44.63130077028184</v>
+      </c>
+      <c r="E82">
         <v>30.10527064049046</v>
-      </c>
-      <c r="E82">
-        <v>14.52603012979138</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H82">
-        <v>14.52603012979138</v>
       </c>
     </row>
     <row r="83">
@@ -2849,21 +1943,10 @@
         <v>50.92687544371697</v>
       </c>
       <c r="D83">
+        <v>50.92687544371697</v>
+      </c>
+      <c r="E83">
         <v>34.22584013771567</v>
-      </c>
-      <c r="E83">
-        <v>16.70103530600129</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H83">
-        <v>16.70103530600129</v>
       </c>
     </row>
     <row r="84">
@@ -2879,21 +1962,10 @@
         <v>44.29239365948226</v>
       </c>
       <c r="D84">
+        <v>44.29239365948226</v>
+      </c>
+      <c r="E84">
         <v>35.64992477141099</v>
-      </c>
-      <c r="E84">
-        <v>8.642468888071274</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H84">
-        <v>8.642468888071274</v>
       </c>
     </row>
     <row r="85">
@@ -2909,21 +1981,10 @@
         <v>51.35415990127947</v>
       </c>
       <c r="D85">
+        <v>51.35415990127947</v>
+      </c>
+      <c r="E85">
         <v>32.01607560188073</v>
-      </c>
-      <c r="E85">
-        <v>19.33808429939874</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H85">
-        <v>19.33808429939874</v>
       </c>
     </row>
     <row r="86">
@@ -2939,21 +2000,10 @@
         <v>36.91487735086608</v>
       </c>
       <c r="D86">
+        <v>36.91487735086609</v>
+      </c>
+      <c r="E86">
         <v>35.2531643559153</v>
-      </c>
-      <c r="E86">
-        <v>1.661712994950787</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H86">
-        <v>1.661712994950787</v>
       </c>
     </row>
     <row r="87">
@@ -2969,21 +2019,10 @@
         <v>46.53541009573301</v>
       </c>
       <c r="D87">
+        <v>46.535410095733</v>
+      </c>
+      <c r="E87">
         <v>37.91665284822803</v>
-      </c>
-      <c r="E87">
-        <v>8.618757247504968</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H87">
-        <v>8.618757247504968</v>
       </c>
     </row>
     <row r="88">
@@ -2999,21 +2038,10 @@
         <v>33.80084151472651</v>
       </c>
       <c r="D88">
+        <v>33.80084151472651</v>
+      </c>
+      <c r="E88">
         <v>29.95371835816143</v>
-      </c>
-      <c r="E88">
-        <v>3.84712315656508</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H88">
-        <v>3.84712315656508</v>
       </c>
     </row>
     <row r="89">
@@ -3032,18 +2060,7 @@
         <v>28.09178386380459</v>
       </c>
       <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>19.9851417745115</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H89">
-        <v>-19.9851417745115</v>
+        <v>48.07692563831609</v>
       </c>
     </row>
     <row r="90">
@@ -3062,18 +2079,7 @@
         <v>31.55067155067155</v>
       </c>
       <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>2.262956615780221</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H90">
-        <v>-2.262956615780221</v>
+        <v>33.81362816645177</v>
       </c>
     </row>
     <row r="91">
@@ -3089,21 +2095,10 @@
         <v>42.6897724764448</v>
       </c>
       <c r="D91">
+        <v>42.68977247644479</v>
+      </c>
+      <c r="E91">
         <v>39.77692615714009</v>
-      </c>
-      <c r="E91">
-        <v>2.912846319304708</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H91">
-        <v>2.912846319304708</v>
       </c>
     </row>
     <row r="92">
@@ -3119,21 +2114,10 @@
         <v>44.72222846736662</v>
       </c>
       <c r="D92">
+        <v>44.72222846736663</v>
+      </c>
+      <c r="E92">
         <v>40.45249611384582</v>
-      </c>
-      <c r="E92">
-        <v>4.269732353520806</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H92">
-        <v>4.269732353520806</v>
       </c>
     </row>
     <row r="93">
@@ -3152,18 +2136,7 @@
         <v>33.40707281688257</v>
       </c>
       <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>25.1525356563196</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H93">
-        <v>-25.1525356563196</v>
+        <v>58.55960847320218</v>
       </c>
     </row>
     <row r="94">
@@ -3182,18 +2155,7 @@
         <v>36.46597648004825</v>
       </c>
       <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>4.934889308844811</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H94">
-        <v>-4.934889308844811</v>
+        <v>41.40086578889306</v>
       </c>
     </row>
     <row r="95">
@@ -3209,21 +2171,10 @@
         <v>38.41637309176313</v>
       </c>
       <c r="D95">
+        <v>38.41637309176312</v>
+      </c>
+      <c r="E95">
         <v>36.84217991374702</v>
-      </c>
-      <c r="E95">
-        <v>1.574193178016106</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H95">
-        <v>1.574193178016106</v>
       </c>
     </row>
     <row r="96">
@@ -3242,18 +2193,7 @@
         <v>36.6681838871188</v>
       </c>
       <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>16.91242400938778</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H96">
-        <v>-16.91242400938778</v>
+        <v>53.58060789650659</v>
       </c>
     </row>
     <row r="97">
@@ -3269,21 +2209,10 @@
         <v>37.25799535609977</v>
       </c>
       <c r="D97">
+        <v>37.25799535609977</v>
+      </c>
+      <c r="E97">
         <v>29.74025095783723</v>
-      </c>
-      <c r="E97">
-        <v>7.517744398262536</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H97">
-        <v>7.517744398262536</v>
       </c>
     </row>
     <row r="98">
@@ -3299,21 +2228,10 @@
         <v>40.47379105872731</v>
       </c>
       <c r="D98">
+        <v>40.47379105872731</v>
+      </c>
+      <c r="E98">
         <v>33.03048498260687</v>
-      </c>
-      <c r="E98">
-        <v>7.443306076120434</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H98">
-        <v>7.443306076120434</v>
       </c>
     </row>
     <row r="99">
@@ -3329,21 +2247,10 @@
         <v>48.16602198072082</v>
       </c>
       <c r="D99">
+        <v>48.16602198072081</v>
+      </c>
+      <c r="E99">
         <v>35.28617358120925</v>
-      </c>
-      <c r="E99">
-        <v>12.87984839951156</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H99">
-        <v>12.87984839951156</v>
       </c>
     </row>
     <row r="100">
@@ -3359,21 +2266,10 @@
         <v>43.89128237859688</v>
       </c>
       <c r="D100">
+        <v>43.89128237859688</v>
+      </c>
+      <c r="E100">
         <v>35.73961533910233</v>
-      </c>
-      <c r="E100">
-        <v>8.151667039494548</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H100">
-        <v>8.151667039494548</v>
       </c>
     </row>
     <row r="101">
@@ -3392,18 +2288,7 @@
         <v>36.57657657657658</v>
       </c>
       <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>2.210986620683105</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="H101">
-        <v>-2.210986620683105</v>
+        <v>38.78756319725968</v>
       </c>
     </row>
   </sheetData>

--- a/sensitivity analysis/outputs/S3/S3_start_immunity.xlsx
+++ b/sensitivity analysis/outputs/S3/S3_start_immunity.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,6 +390,11 @@
           <t>immunity_by_vaccination</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>scenario</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -409,6 +414,11 @@
       <c r="E2">
         <v>44.14099556684915</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -428,6 +438,11 @@
       <c r="E3">
         <v>33.24944255281638</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -447,6 +462,11 @@
       <c r="E4">
         <v>47.29482255311301</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -466,6 +486,11 @@
       <c r="E5">
         <v>32.13506570860204</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -485,6 +510,11 @@
       <c r="E6">
         <v>44.37921895212574</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +534,11 @@
       <c r="E7">
         <v>43.1115365299928</v>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -523,6 +558,11 @@
       <c r="E8">
         <v>42.365158743325</v>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -542,6 +582,11 @@
       <c r="E9">
         <v>40.41028778088039</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -561,6 +606,11 @@
       <c r="E10">
         <v>30.55913992212878</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -580,6 +630,11 @@
       <c r="E11">
         <v>54.18868445009682</v>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -599,6 +654,11 @@
       <c r="E12">
         <v>51.9260518992191</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -618,6 +678,11 @@
       <c r="E13">
         <v>35.36294023937685</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -637,6 +702,11 @@
       <c r="E14">
         <v>39.66233375948252</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -656,6 +726,11 @@
       <c r="E15">
         <v>36.00984085587645</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -675,6 +750,11 @@
       <c r="E16">
         <v>31.80344609126112</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -694,6 +774,11 @@
       <c r="E17">
         <v>45.10661854673607</v>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -713,6 +798,11 @@
       <c r="E18">
         <v>35.36649395848281</v>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -732,6 +822,11 @@
       <c r="E19">
         <v>39.99794611134792</v>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -751,6 +846,11 @@
       <c r="E20">
         <v>48.77357229495296</v>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -770,6 +870,11 @@
       <c r="E21">
         <v>33.6752665218138</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -789,6 +894,11 @@
       <c r="E22">
         <v>42.44481141467617</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -808,6 +918,11 @@
       <c r="E23">
         <v>34.31716275050722</v>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -827,6 +942,11 @@
       <c r="E24">
         <v>34.17733258723138</v>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -846,6 +966,11 @@
       <c r="E25">
         <v>30.84225546824763</v>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -865,6 +990,11 @@
       <c r="E26">
         <v>38.59474445597377</v>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -884,6 +1014,11 @@
       <c r="E27">
         <v>26.40659077238223</v>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -903,6 +1038,11 @@
       <c r="E28">
         <v>35.47466284520707</v>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -922,6 +1062,11 @@
       <c r="E29">
         <v>62.00274822239385</v>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -941,6 +1086,11 @@
       <c r="E30">
         <v>34.48325984072544</v>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -960,6 +1110,11 @@
       <c r="E31">
         <v>43.88250011906534</v>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -979,6 +1134,11 @@
       <c r="E32">
         <v>28.21789526284213</v>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -998,6 +1158,11 @@
       <c r="E33">
         <v>54.87703308549062</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1017,6 +1182,11 @@
       <c r="E34">
         <v>33.25013994704943</v>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1036,6 +1206,11 @@
       <c r="E35">
         <v>48.15366262425064</v>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1055,6 +1230,11 @@
       <c r="E36">
         <v>40.64444738071186</v>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1074,6 +1254,11 @@
       <c r="E37">
         <v>36.66309896774178</v>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1093,6 +1278,11 @@
       <c r="E38">
         <v>30.95135845957309</v>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1112,6 +1302,11 @@
       <c r="E39">
         <v>30.90070922474321</v>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1131,6 +1326,11 @@
       <c r="E40">
         <v>42.48382939173628</v>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1150,6 +1350,11 @@
       <c r="E41">
         <v>40.1066820501356</v>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1169,6 +1374,11 @@
       <c r="E42">
         <v>47.06811464452477</v>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1188,6 +1398,11 @@
       <c r="E43">
         <v>38.24045519313722</v>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1207,6 +1422,11 @@
       <c r="E44">
         <v>28.73234820156047</v>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1226,6 +1446,11 @@
       <c r="E45">
         <v>45.47498765960906</v>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1245,6 +1470,11 @@
       <c r="E46">
         <v>45.87454238476983</v>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1264,6 +1494,11 @@
       <c r="E47">
         <v>33.98615684957979</v>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1283,6 +1518,11 @@
       <c r="E48">
         <v>21.25208881799581</v>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1302,6 +1542,11 @@
       <c r="E49">
         <v>52.81183490839055</v>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1321,6 +1566,11 @@
       <c r="E50">
         <v>38.41212771444065</v>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1340,6 +1590,11 @@
       <c r="E51">
         <v>39.63380823510332</v>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1359,6 +1614,11 @@
       <c r="E52">
         <v>39.35567043067265</v>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1378,6 +1638,11 @@
       <c r="E53">
         <v>36.72198415755368</v>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1397,6 +1662,11 @@
       <c r="E54">
         <v>39.20052859767888</v>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1416,6 +1686,11 @@
       <c r="E55">
         <v>38.9423163038304</v>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1435,6 +1710,11 @@
       <c r="E56">
         <v>38.24933151254588</v>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1454,6 +1734,11 @@
       <c r="E57">
         <v>48.38575661447764</v>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1473,6 +1758,11 @@
       <c r="E58">
         <v>46.51163114097949</v>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1492,6 +1782,11 @@
       <c r="E59">
         <v>33.89984858106718</v>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1511,6 +1806,11 @@
       <c r="E60">
         <v>37.50093065085732</v>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1530,6 +1830,11 @@
       <c r="E61">
         <v>47.64297728475222</v>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1549,6 +1854,11 @@
       <c r="E62">
         <v>36.90524015320087</v>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1568,6 +1878,11 @@
       <c r="E63">
         <v>33.18744365555313</v>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1587,6 +1902,11 @@
       <c r="E64">
         <v>45.4025617602711</v>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1606,6 +1926,11 @@
       <c r="E65">
         <v>42.67783065730858</v>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1625,6 +1950,11 @@
       <c r="E66">
         <v>51.2081347674178</v>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1644,6 +1974,11 @@
       <c r="E67">
         <v>36.33516965859189</v>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1663,6 +1998,11 @@
       <c r="E68">
         <v>22.82245652981953</v>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1682,6 +2022,11 @@
       <c r="E69">
         <v>63.25493391093637</v>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1701,6 +2046,11 @@
       <c r="E70">
         <v>42.47640237326462</v>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1720,6 +2070,11 @@
       <c r="E71">
         <v>38.86562533105315</v>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1739,6 +2094,11 @@
       <c r="E72">
         <v>39.05384664488866</v>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1758,6 +2118,11 @@
       <c r="E73">
         <v>35.48188509091392</v>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1777,6 +2142,11 @@
       <c r="E74">
         <v>40.67063274536932</v>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1796,6 +2166,11 @@
       <c r="E75">
         <v>41.01863287511839</v>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1815,6 +2190,11 @@
       <c r="E76">
         <v>38.26564347279875</v>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1834,6 +2214,11 @@
       <c r="E77">
         <v>31.47935403153563</v>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1853,6 +2238,11 @@
       <c r="E78">
         <v>33.24371567052008</v>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1872,6 +2262,11 @@
       <c r="E79">
         <v>24.25373579412955</v>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1891,6 +2286,11 @@
       <c r="E80">
         <v>37.35033916115638</v>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1910,6 +2310,11 @@
       <c r="E81">
         <v>29.37336716659092</v>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1929,6 +2334,11 @@
       <c r="E82">
         <v>30.10527064049046</v>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1948,6 +2358,11 @@
       <c r="E83">
         <v>34.22584013771567</v>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1967,6 +2382,11 @@
       <c r="E84">
         <v>35.64992477141099</v>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1986,6 +2406,11 @@
       <c r="E85">
         <v>32.01607560188073</v>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2005,6 +2430,11 @@
       <c r="E86">
         <v>35.2531643559153</v>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2024,6 +2454,11 @@
       <c r="E87">
         <v>37.91665284822803</v>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2043,6 +2478,11 @@
       <c r="E88">
         <v>29.95371835816143</v>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2062,6 +2502,11 @@
       <c r="E89">
         <v>48.07692563831609</v>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2081,6 +2526,11 @@
       <c r="E90">
         <v>33.81362816645177</v>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2100,6 +2550,11 @@
       <c r="E91">
         <v>39.77692615714009</v>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2119,6 +2574,11 @@
       <c r="E92">
         <v>40.45249611384582</v>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2138,6 +2598,11 @@
       <c r="E93">
         <v>58.55960847320218</v>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2157,6 +2622,11 @@
       <c r="E94">
         <v>41.40086578889306</v>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2176,6 +2646,11 @@
       <c r="E95">
         <v>36.84217991374702</v>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2195,6 +2670,11 @@
       <c r="E96">
         <v>53.58060789650659</v>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2214,6 +2694,11 @@
       <c r="E97">
         <v>29.74025095783723</v>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2233,6 +2718,11 @@
       <c r="E98">
         <v>33.03048498260687</v>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2252,6 +2742,11 @@
       <c r="E99">
         <v>35.28617358120925</v>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2271,6 +2766,11 @@
       <c r="E100">
         <v>35.73961533910233</v>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2289,6 +2789,11 @@
       </c>
       <c r="E101">
         <v>38.78756319725968</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
       </c>
     </row>
   </sheetData>
